--- a/Gradient Descent.xlsx
+++ b/Gradient Descent.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS 5000\Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BDBD5E-6885-4C93-A39D-87331E376427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FEECBA-6291-46C7-9FA4-4CF84836AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R_Square" sheetId="1" r:id="rId1"/>
     <sheet name="Cost Function" sheetId="2" r:id="rId2"/>
+    <sheet name="Convolution Layer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Hr Study</t>
   </si>
@@ -121,17 +122,59 @@
     <t>(1/(2*13)*(SUM(K4:K16)))</t>
   </si>
   <si>
-    <t xml:space="preserve">if m changes </t>
-  </si>
-  <si>
     <t>then Error or Cost Function also changes</t>
+  </si>
+  <si>
+    <t>if m changes when c=0</t>
+  </si>
+  <si>
+    <t>if m changes when c=1</t>
+  </si>
+  <si>
+    <t>Convolutional Layer</t>
+  </si>
+  <si>
+    <t>7X7</t>
+  </si>
+  <si>
+    <t>Kernal</t>
+  </si>
+  <si>
+    <t>Feature Map</t>
+  </si>
+  <si>
+    <t>3X3</t>
+  </si>
+  <si>
+    <t>3*1+0*0+1*0+0*0-3*1+3*0+3*0+4*0+1*5</t>
+  </si>
+  <si>
+    <t>5X5</t>
+  </si>
+  <si>
+    <t>0*1+3*0+3*1+3*0-4*1+5*0+0*0+0*5+1*1</t>
+  </si>
+  <si>
+    <t>0*1+0*0+1+0-3+0+0+0+1</t>
+  </si>
+  <si>
+    <t>Feature Map (Lets assume values)</t>
+  </si>
+  <si>
+    <t>Max Pooling</t>
+  </si>
+  <si>
+    <t>Flatern Layer</t>
+  </si>
+  <si>
+    <t>9X1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +189,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +303,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -247,11 +342,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,24 +380,84 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +758,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -653,14 +823,14 @@
         <v>41.8</v>
       </c>
       <c r="I4">
-        <f>F4*C4+G4</f>
+        <f t="shared" ref="I4:I16" si="0">F4*C4+G4</f>
         <v>41.8</v>
       </c>
       <c r="K4">
         <v>66.307689999999994</v>
       </c>
       <c r="M4">
-        <f>D4-K4</f>
+        <f t="shared" ref="M4:M16" si="1">D4-K4</f>
         <v>-26.307689999999994</v>
       </c>
       <c r="N4">
@@ -672,7 +842,7 @@
         <v>692.09455313609965</v>
       </c>
       <c r="Q4">
-        <f>I4-K4</f>
+        <f t="shared" ref="Q4:Q16" si="2">I4-K4</f>
         <v>-24.507689999999997</v>
       </c>
       <c r="R4">
@@ -698,34 +868,34 @@
         <v>41.8</v>
       </c>
       <c r="I5">
-        <f>F5*C5+G5</f>
+        <f t="shared" si="0"/>
         <v>50.9</v>
       </c>
       <c r="K5">
         <v>66.307689999999994</v>
       </c>
       <c r="M5">
-        <f>D5-K5</f>
+        <f t="shared" si="1"/>
         <v>-14.307689999999994</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N16" si="0">D5-K5</f>
+        <f t="shared" ref="N5:N16" si="3">D5-K5</f>
         <v>-14.307689999999994</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O16" si="1">N5*M5</f>
+        <f t="shared" ref="O5:O16" si="4">N5*M5</f>
         <v>204.70999313609983</v>
       </c>
       <c r="Q5">
-        <f>I5-K5</f>
+        <f t="shared" si="2"/>
         <v>-15.407689999999995</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R16" si="2">I5-K5</f>
+        <f t="shared" ref="R5:R16" si="5">I5-K5</f>
         <v>-15.407689999999995</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S16" si="3">R5*Q5</f>
+        <f t="shared" ref="S5:S16" si="6">R5*Q5</f>
         <v>237.39691113609985</v>
       </c>
     </row>
@@ -743,34 +913,34 @@
         <v>41.8</v>
       </c>
       <c r="I6">
-        <f>F6*C6+G6</f>
+        <f t="shared" si="0"/>
         <v>55.449999999999996</v>
       </c>
       <c r="K6">
         <v>66.307689999999994</v>
       </c>
       <c r="M6">
-        <f>D6-K6</f>
+        <f t="shared" si="1"/>
         <v>-13.307689999999994</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-13.307689999999994</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>177.09461313609984</v>
       </c>
       <c r="Q6">
-        <f>I6-K6</f>
-        <v>-10.857689999999998</v>
-      </c>
-      <c r="R6">
         <f t="shared" si="2"/>
         <v>-10.857689999999998</v>
       </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>-10.857689999999998</v>
+      </c>
       <c r="S6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>117.88943213609996</v>
       </c>
     </row>
@@ -788,34 +958,34 @@
         <v>41.8</v>
       </c>
       <c r="I7">
-        <f>F7*C7+G7</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K7">
         <v>66.307689999999994</v>
       </c>
       <c r="M7">
-        <f>D7-K7</f>
+        <f t="shared" si="1"/>
         <v>-11.307689999999994</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-11.307689999999994</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>127.86385313609986</v>
       </c>
       <c r="Q7">
-        <f>I7-K7</f>
-        <v>-6.3076899999999938</v>
-      </c>
-      <c r="R7">
         <f t="shared" si="2"/>
         <v>-6.3076899999999938</v>
       </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>-6.3076899999999938</v>
+      </c>
       <c r="S7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39.786953136099925</v>
       </c>
     </row>
@@ -833,34 +1003,34 @@
         <v>41.8</v>
       </c>
       <c r="I8">
-        <f>F8*C8+G8</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K8">
         <v>66.307689999999994</v>
       </c>
       <c r="M8">
-        <f>D8-K8</f>
+        <f t="shared" si="1"/>
         <v>-10.307689999999994</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-10.307689999999994</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>106.24847313609988</v>
       </c>
       <c r="Q8">
-        <f>I8-K8</f>
-        <v>-6.3076899999999938</v>
-      </c>
-      <c r="R8">
         <f t="shared" si="2"/>
         <v>-6.3076899999999938</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>-6.3076899999999938</v>
+      </c>
       <c r="S8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39.786953136099925</v>
       </c>
     </row>
@@ -878,34 +1048,34 @@
         <v>41.8</v>
       </c>
       <c r="I9">
-        <f>F9*C9+G9</f>
+        <f t="shared" si="0"/>
         <v>64.55</v>
       </c>
       <c r="K9">
         <v>66.307689999999994</v>
       </c>
       <c r="M9">
-        <f>D9-K9</f>
+        <f t="shared" si="1"/>
         <v>5.6923100000000062</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.6923100000000062</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>32.402393136100073</v>
       </c>
       <c r="Q9">
-        <f>I9-K9</f>
-        <v>-1.7576899999999966</v>
-      </c>
-      <c r="R9">
         <f t="shared" si="2"/>
         <v>-1.7576899999999966</v>
       </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>-1.7576899999999966</v>
+      </c>
       <c r="S9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.0894741360999882</v>
       </c>
     </row>
@@ -923,34 +1093,34 @@
         <v>41.8</v>
       </c>
       <c r="I10">
-        <f>F10*C10+G10</f>
+        <f t="shared" si="0"/>
         <v>69.099999999999994</v>
       </c>
       <c r="K10">
         <v>66.307689999999994</v>
       </c>
       <c r="M10">
-        <f>D10-K10</f>
+        <f t="shared" si="1"/>
         <v>4.6923100000000062</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.6923100000000062</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22.017773136100057</v>
       </c>
       <c r="Q10">
-        <f>I10-K10</f>
-        <v>2.7923100000000005</v>
-      </c>
-      <c r="R10">
         <f t="shared" si="2"/>
         <v>2.7923100000000005</v>
       </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>2.7923100000000005</v>
+      </c>
       <c r="S10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.7969951361000032</v>
       </c>
     </row>
@@ -968,34 +1138,34 @@
         <v>41.8</v>
       </c>
       <c r="I11">
-        <f>F11*C11+G11</f>
+        <f t="shared" si="0"/>
         <v>69.099999999999994</v>
       </c>
       <c r="K11">
         <v>66.307689999999994</v>
       </c>
       <c r="M11">
-        <f>D11-K11</f>
+        <f t="shared" si="1"/>
         <v>21.692310000000006</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>21.692310000000006</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>470.55631313610024</v>
       </c>
       <c r="Q11">
-        <f>I11-K11</f>
-        <v>2.7923100000000005</v>
-      </c>
-      <c r="R11">
         <f t="shared" si="2"/>
         <v>2.7923100000000005</v>
       </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>2.7923100000000005</v>
+      </c>
       <c r="S11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.7969951361000032</v>
       </c>
     </row>
@@ -1013,34 +1183,34 @@
         <v>41.8</v>
       </c>
       <c r="I12">
-        <f>F12*C12+G12</f>
+        <f t="shared" si="0"/>
         <v>73.649999999999991</v>
       </c>
       <c r="K12">
         <v>66.307689999999994</v>
       </c>
       <c r="M12">
-        <f>D12-K12</f>
+        <f t="shared" si="1"/>
         <v>-10.307689999999994</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-10.307689999999994</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>106.24847313609988</v>
       </c>
       <c r="Q12">
-        <f>I12-K12</f>
-        <v>7.3423099999999977</v>
-      </c>
-      <c r="R12">
         <f t="shared" si="2"/>
         <v>7.3423099999999977</v>
       </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>7.3423099999999977</v>
+      </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.909516136099967</v>
       </c>
     </row>
@@ -1058,34 +1228,34 @@
         <v>41.8</v>
       </c>
       <c r="I13">
-        <f>F13*C13+G13</f>
+        <f t="shared" si="0"/>
         <v>73.649999999999991</v>
       </c>
       <c r="K13">
         <v>66.307689999999994</v>
       </c>
       <c r="M13">
-        <f>D13-K13</f>
+        <f t="shared" si="1"/>
         <v>7.6923100000000062</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.6923100000000062</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>59.171633136100098</v>
       </c>
       <c r="Q13">
-        <f>I13-K13</f>
-        <v>7.3423099999999977</v>
-      </c>
-      <c r="R13">
         <f t="shared" si="2"/>
         <v>7.3423099999999977</v>
       </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>7.3423099999999977</v>
+      </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.909516136099967</v>
       </c>
     </row>
@@ -1103,34 +1273,34 @@
         <v>41.8</v>
       </c>
       <c r="I14">
-        <f>F14*C14+G14</f>
+        <f t="shared" si="0"/>
         <v>78.199999999999989</v>
       </c>
       <c r="K14">
         <v>66.307689999999994</v>
       </c>
       <c r="M14">
-        <f>D14-K14</f>
+        <f t="shared" si="1"/>
         <v>22.692310000000006</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22.692310000000006</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>514.94093313610028</v>
       </c>
       <c r="Q14">
-        <f>I14-K14</f>
-        <v>11.892309999999995</v>
-      </c>
-      <c r="R14">
         <f t="shared" si="2"/>
         <v>11.892309999999995</v>
       </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>11.892309999999995</v>
+      </c>
       <c r="S14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>141.42703713609987</v>
       </c>
     </row>
@@ -1148,34 +1318,34 @@
         <v>41.8</v>
       </c>
       <c r="I15">
-        <f>F15*C15+G15</f>
+        <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
       <c r="K15">
         <v>66.307689999999994</v>
       </c>
       <c r="M15">
-        <f>D15-K15</f>
+        <f t="shared" si="1"/>
         <v>0.6923100000000062</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.6923100000000062</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.47929313610000857</v>
       </c>
       <c r="Q15">
-        <f>I15-K15</f>
-        <v>16.442310000000006</v>
-      </c>
-      <c r="R15">
         <f t="shared" si="2"/>
         <v>16.442310000000006</v>
       </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>16.442310000000006</v>
+      </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>270.3495581361002</v>
       </c>
     </row>
@@ -1193,34 +1363,34 @@
         <v>41.8</v>
       </c>
       <c r="I16">
-        <f>F16*C16+G16</f>
+        <f t="shared" si="0"/>
         <v>82.75</v>
       </c>
       <c r="K16">
         <v>66.307689999999994</v>
       </c>
       <c r="M16">
-        <f>D16-K16</f>
+        <f t="shared" si="1"/>
         <v>22.692310000000006</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22.692310000000006</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>514.94093313610028</v>
       </c>
       <c r="Q16">
-        <f>I16-K16</f>
-        <v>16.442310000000006</v>
-      </c>
-      <c r="R16">
         <f t="shared" si="2"/>
         <v>16.442310000000006</v>
       </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>16.442310000000006</v>
+      </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>270.3495581361002</v>
       </c>
     </row>
@@ -1246,45 +1416,45 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S18" s="21" t="s">
+      <c r="S18" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22" s="10">
         <f>1844.115769/3028.769321</f>
         <v>0.60886636569309061</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18" t="s">
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,599 +1464,1362 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57583486-17CA-48A0-A321-5B9EFB9AFA05}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B16"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="8.88671875" style="15"/>
+    <col min="6" max="6" width="23" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="15"/>
+    <col min="9" max="10" width="21" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.88671875" style="15"/>
+    <col min="15" max="15" width="15.109375" style="15" customWidth="1"/>
+    <col min="16" max="21" width="8.88671875" style="15"/>
+    <col min="22" max="22" width="15.109375" style="15" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="U2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
         <v>40</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="14">
         <f>B4*D4+A4</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" ref="I4:I16" si="0">E4-G4</f>
+        <v>39</v>
+      </c>
+      <c r="J4" s="14">
         <f>E4-G4</f>
-        <v>40</v>
-      </c>
-      <c r="J4">
-        <f>E4-G4</f>
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <f>J4*I4</f>
-        <v>1600</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="P4">
+        <v>39</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" ref="K4:K16" si="1">J4*I4</f>
+        <v>1521</v>
+      </c>
+      <c r="N4" s="27">
+        <v>1</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27">
         <v>1944.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="U4" s="27">
+        <v>1</v>
+      </c>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27">
+        <v>1844.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="14">
         <v>52</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G16" si="0">B5*D5+A5</f>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G16" si="2">B5*D5+A5</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" ref="J5:J16" si="3">E5-G5</f>
+        <v>45</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="N5" s="27">
         <v>2</v>
       </c>
-      <c r="I5">
-        <f>E5-G5</f>
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J16" si="1">E5-G5</f>
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <f>J5*I5</f>
-        <v>2500</v>
-      </c>
-      <c r="N5">
+      <c r="O5" s="27"/>
+      <c r="P5" s="27">
+        <v>1610.08</v>
+      </c>
+      <c r="U5" s="27">
         <v>2</v>
       </c>
-      <c r="P5">
-        <v>1610.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="V5" s="27"/>
+      <c r="W5" s="27">
+        <v>1555.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
         <v>53</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <f>E6-G6</f>
-        <v>50</v>
-      </c>
-      <c r="J6">
+        <v>43</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="K6" s="14">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="K6">
-        <f>J6*I6</f>
-        <v>2500</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="P6">
+        <v>1849</v>
+      </c>
+      <c r="N6" s="27">
+        <v>3</v>
+      </c>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27">
         <v>1311.46</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="U6" s="45">
+        <v>3</v>
+      </c>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45">
+        <v>1261.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="14">
         <v>55</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I7" s="14">
         <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="1"/>
+        <v>1764</v>
+      </c>
+      <c r="N7" s="27">
+        <v>5</v>
+      </c>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27">
+        <v>821.77</v>
+      </c>
+      <c r="U7" s="27">
+        <v>5</v>
+      </c>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14">
         <v>4</v>
       </c>
-      <c r="I7">
-        <f>E7-G7</f>
-        <v>51</v>
-      </c>
-      <c r="J7">
+      <c r="E8" s="14">
+        <v>56</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="K8" s="14">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="K7">
-        <f>J7*I7</f>
-        <v>2601</v>
-      </c>
-      <c r="N7">
+        <v>1849</v>
+      </c>
+      <c r="N8" s="27">
+        <v>7</v>
+      </c>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27">
+        <v>475.46</v>
+      </c>
+      <c r="U8" s="27">
+        <v>7</v>
+      </c>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14">
         <v>5</v>
       </c>
-      <c r="P7">
-        <v>821.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="E9" s="14">
+        <v>72</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="G8">
+      <c r="J9" s="14">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="1"/>
+        <v>3136</v>
+      </c>
+      <c r="N9" s="27">
+        <v>8</v>
+      </c>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27">
+        <v>356.077</v>
+      </c>
+      <c r="U9" s="27">
+        <v>8</v>
+      </c>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14">
+        <v>71</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <f>E8-G8</f>
         <v>52</v>
       </c>
-      <c r="J8">
+      <c r="J10" s="14">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="K10" s="14">
         <f t="shared" si="1"/>
+        <v>2704</v>
+      </c>
+      <c r="N10" s="45">
+        <v>10</v>
+      </c>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45">
+        <v>224.84610000000001</v>
+      </c>
+      <c r="U10" s="46">
+        <v>10</v>
+      </c>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46">
+        <v>212.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>1</v>
+      </c>
+      <c r="B11" s="14">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14">
+        <v>88</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="1"/>
+        <v>4761</v>
+      </c>
+      <c r="N11" s="45">
+        <v>12</v>
+      </c>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45">
+        <v>237</v>
+      </c>
+      <c r="U11" s="27">
+        <v>12</v>
+      </c>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14">
+        <v>56</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="1"/>
+        <v>1156</v>
+      </c>
+      <c r="N12" s="27">
+        <v>14</v>
+      </c>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27">
+        <v>392.53800000000001</v>
+      </c>
+      <c r="U12" s="27">
+        <v>14</v>
+      </c>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14">
+        <v>7</v>
+      </c>
+      <c r="E13" s="14">
+        <v>74</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="K8">
-        <f>J8*I8</f>
+      <c r="J13" s="14">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="1"/>
         <v>2704</v>
       </c>
-      <c r="N8">
-        <v>7</v>
-      </c>
-      <c r="P8">
-        <v>475.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>72</v>
-      </c>
-      <c r="G9">
+      <c r="N13" s="27">
+        <v>15</v>
+      </c>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27">
+        <v>524.077</v>
+      </c>
+      <c r="U13" s="27">
+        <v>15</v>
+      </c>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="14">
+        <v>89</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="I14" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <f>E9-G9</f>
+        <v>64</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+      <c r="N14" s="27">
+        <v>16</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27">
+        <v>691.46</v>
+      </c>
+      <c r="U14" s="27">
+        <v>16</v>
+      </c>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="D15" s="14">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14">
         <v>67</v>
       </c>
-      <c r="J9">
+      <c r="G15" s="14">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="K15" s="14">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="K9">
-        <f>J9*I9</f>
-        <v>4489</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-      <c r="P9">
-        <v>356.077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>71</v>
-      </c>
-      <c r="G10">
+        <v>1521</v>
+      </c>
+      <c r="N15" s="27">
+        <v>17</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27">
+        <v>894.69</v>
+      </c>
+      <c r="U15" s="27">
+        <v>17</v>
+      </c>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14">
+        <v>89</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I16" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <f>E10-G10</f>
-        <v>65</v>
-      </c>
-      <c r="J10">
+        <v>61</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="K16" s="14">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="K10">
-        <f>J10*I10</f>
-        <v>4225</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="P10">
-        <v>224.84610000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>88</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <f>E11-G11</f>
-        <v>82</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="K11">
-        <f>J11*I11</f>
-        <v>6724</v>
-      </c>
-      <c r="N11">
-        <v>12</v>
-      </c>
-      <c r="P11">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1">
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <f>E12-G12</f>
-        <v>49</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="K12">
-        <f>J12*I12</f>
-        <v>2401</v>
-      </c>
-      <c r="N12">
-        <v>14</v>
-      </c>
-      <c r="P12">
-        <v>392.53800000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>74</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <f>E13-G13</f>
-        <v>67</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="K13">
-        <f>J13*I13</f>
-        <v>4489</v>
-      </c>
-      <c r="N13">
-        <v>15</v>
-      </c>
-      <c r="P13">
-        <v>524.077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>89</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <f>E14-G14</f>
-        <v>81</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="K14">
-        <f>J14*I14</f>
-        <v>6561</v>
-      </c>
-      <c r="N14">
-        <v>16</v>
-      </c>
-      <c r="P14">
-        <v>691.46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1">
-        <v>67</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I15">
-        <f>E15-G15</f>
-        <v>58</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="K15">
-        <f>J15*I15</f>
-        <v>3364</v>
-      </c>
-      <c r="N15">
-        <v>17</v>
-      </c>
-      <c r="P15">
-        <v>894.69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>89</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <f>E16-G16</f>
-        <v>80</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="K16">
-        <f>J16*I16</f>
-        <v>6400</v>
-      </c>
-      <c r="N16">
+        <v>3721</v>
+      </c>
+      <c r="N16" s="27">
         <v>18</v>
       </c>
-      <c r="P16">
+      <c r="O16" s="27"/>
+      <c r="P16" s="27">
         <v>1133.77</v>
       </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="K17">
+      <c r="U16" s="27">
+        <v>18</v>
+      </c>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="K17" s="14">
         <f>SUM(K4:K16)</f>
-        <v>50558</v>
-      </c>
-      <c r="N17">
+        <v>32807</v>
+      </c>
+      <c r="N17" s="27">
         <v>20</v>
       </c>
-      <c r="P17">
+      <c r="O17" s="27"/>
+      <c r="P17" s="27">
         <v>1719.46</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="N18">
+      <c r="U17" s="27">
+        <v>20</v>
+      </c>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="N18" s="27">
         <v>21</v>
       </c>
-      <c r="P18">
+      <c r="O18" s="27"/>
+      <c r="P18" s="27">
         <v>2066.0770000000002</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
+      <c r="U18" s="27">
+        <v>21</v>
+      </c>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="16">
         <f>(1/(2*13)*(SUM(K4:K16)))</f>
-        <v>1944.5384615384617</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+        <v>1261.8076923076924</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993886AC-B2E7-44D4-AD15-B09F6A2699BE}">
+  <dimension ref="C2:S55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="C2" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C6" s="30">
+        <v>3</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>4</v>
+      </c>
+      <c r="O6" s="29">
+        <v>5</v>
+      </c>
+      <c r="P6" s="34">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30">
+        <v>3</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2</v>
+      </c>
+      <c r="G7" s="30">
+        <v>4</v>
+      </c>
+      <c r="H7" s="30">
+        <v>2</v>
+      </c>
+      <c r="I7" s="30">
+        <v>4</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="30">
+        <v>3</v>
+      </c>
+      <c r="D8" s="30">
+        <v>4</v>
+      </c>
+      <c r="E8" s="30">
+        <v>5</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>4</v>
+      </c>
+      <c r="H8" s="30">
+        <v>2</v>
+      </c>
+      <c r="I8" s="30">
+        <v>2</v>
+      </c>
+      <c r="K8" s="31">
+        <v>1</v>
+      </c>
+      <c r="L8" s="31">
+        <v>0</v>
+      </c>
+      <c r="M8" s="31">
+        <v>1</v>
+      </c>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <v>5</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>3</v>
+      </c>
+      <c r="H9" s="30">
+        <v>2</v>
+      </c>
+      <c r="I9" s="30">
+        <v>5</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="31">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="30">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>3</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>5</v>
+      </c>
+      <c r="H10" s="30">
+        <v>3</v>
+      </c>
+      <c r="I10" s="30">
+        <v>4</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31">
+        <v>0</v>
+      </c>
+      <c r="M10" s="31">
+        <v>1</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C11" s="30">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>5</v>
+      </c>
+      <c r="E11" s="30">
+        <v>5</v>
+      </c>
+      <c r="F11" s="30">
+        <v>2</v>
+      </c>
+      <c r="G11" s="30">
+        <v>4</v>
+      </c>
+      <c r="H11" s="30">
+        <v>5</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="30">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>2</v>
+      </c>
+      <c r="I12" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <f>3*1+0*0+1*0+0*0-3*1+3*0+3*0+4*0+1*5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="30">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30">
+        <v>3</v>
+      </c>
+      <c r="E17" s="30">
+        <v>3</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="31">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="30">
+        <v>3</v>
+      </c>
+      <c r="D18" s="30">
+        <v>4</v>
+      </c>
+      <c r="E18" s="30">
+        <v>5</v>
+      </c>
+      <c r="G18" s="31">
+        <v>0</v>
+      </c>
+      <c r="H18" s="31">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="30">
+        <v>0</v>
+      </c>
+      <c r="D19" s="30">
+        <v>5</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <f>0*1+3*0+3*1+3*0-4*1+5*0+0*0+0*5+1*1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="30">
+        <v>0</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31">
+        <v>1</v>
+      </c>
+      <c r="H23" s="31">
+        <v>0</v>
+      </c>
+      <c r="I23" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="30">
+        <v>3</v>
+      </c>
+      <c r="D24" s="30">
+        <v>3</v>
+      </c>
+      <c r="E24" s="30">
+        <v>2</v>
+      </c>
+      <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="31">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="30">
+        <v>4</v>
+      </c>
+      <c r="D25" s="30">
+        <v>5</v>
+      </c>
+      <c r="E25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31">
+        <v>0</v>
+      </c>
+      <c r="I25" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27">
+        <f>0*1+0*0+1+0-3+0+0+0+1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="C31" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="J31" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="37">
+        <v>5</v>
+      </c>
+      <c r="D35" s="37">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="38">
+        <v>3</v>
+      </c>
+      <c r="F35" s="38">
+        <v>0</v>
+      </c>
+      <c r="G35" s="39">
+        <v>2</v>
+      </c>
+      <c r="J35" s="37">
+        <v>5</v>
+      </c>
+      <c r="K35" s="38">
+        <v>3</v>
+      </c>
+      <c r="L35" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="37">
+        <v>0</v>
+      </c>
+      <c r="D36" s="37">
+        <v>3</v>
+      </c>
+      <c r="E36" s="38">
+        <v>2</v>
+      </c>
+      <c r="F36" s="38">
+        <v>1</v>
+      </c>
+      <c r="G36" s="39">
+        <v>6</v>
+      </c>
+      <c r="J36" s="40">
+        <v>7</v>
+      </c>
+      <c r="K36" s="41">
+        <v>4</v>
+      </c>
+      <c r="L36" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="40">
+        <v>5</v>
+      </c>
+      <c r="D37" s="40">
+        <v>-2</v>
+      </c>
+      <c r="E37" s="41">
+        <v>4</v>
+      </c>
+      <c r="F37" s="41">
+        <v>1</v>
+      </c>
+      <c r="G37" s="37">
+        <v>3</v>
+      </c>
+      <c r="J37" s="42">
+        <v>4</v>
+      </c>
+      <c r="K37" s="43">
+        <v>2</v>
+      </c>
+      <c r="L37" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="40">
+        <v>7</v>
+      </c>
+      <c r="D38" s="40">
+        <v>2</v>
+      </c>
+      <c r="E38" s="41">
+        <v>3</v>
+      </c>
+      <c r="F38" s="41">
+        <v>4</v>
+      </c>
+      <c r="G38" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C39" s="42">
+        <v>4</v>
+      </c>
+      <c r="D39" s="42">
+        <v>-5</v>
+      </c>
+      <c r="E39" s="43">
+        <v>2</v>
+      </c>
+      <c r="F39" s="43">
+        <v>1</v>
+      </c>
+      <c r="G39" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C43" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C47" s="37">
+        <v>5</v>
+      </c>
+      <c r="D47" s="38">
+        <v>3</v>
+      </c>
+      <c r="E47" s="39">
+        <v>6</v>
+      </c>
+      <c r="J47" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C48" s="40">
+        <v>7</v>
+      </c>
+      <c r="D48" s="41">
+        <v>4</v>
+      </c>
+      <c r="E48" s="37">
+        <v>3</v>
+      </c>
+      <c r="J48" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="42">
+        <v>4</v>
+      </c>
+      <c r="D49" s="43">
+        <v>2</v>
+      </c>
+      <c r="E49" s="44">
+        <v>6</v>
+      </c>
+      <c r="J49" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J50" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J51" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J52" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J53" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J54" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J55" s="47">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>